--- a/utils/localisation_script/excel_to_json/pa/zlatest.xlsx
+++ b/utils/localisation_script/excel_to_json/pa/zlatest.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sreejithv/TW/projects/ekStep/crowdsource-dataplatform/utils/localisation_script/excel_to_json/pa/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nireshkumarr/Documents/ekstep/crowdsource-dataplatform/utils/localisation_script/excel_to_json/pa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76A1C01F-772D-3541-866A-FF233D9B2D97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4C11B7C-8994-2A45-A77F-AEEDD0522C3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20400" xr2:uid="{8A6112F6-1D47-BF40-B99F-3DB2AA07C7EB}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20400" xr2:uid="{8A6112F6-1D47-BF40-B99F-3DB2AA07C7EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -222,22 +222,22 @@
     <t>ਸਾਰੇ ਖੇਤਰ ਵਿਕਲਪਿਕ ਹਨ ਪਰ ਤੁਸੀਂ ਜਨਸੰਖਿਆ ਸੰਬੰਧੀ ਵੇਰਵੇ ਪ੍ਰਦਾਨ ਕਰਕੇ ਆਪਣੇ ਡੈਟਾਸੇਟ ਦੇ ਯੋਗਦਾਨ ਨੂੰ ਅਮੀਰ ਬਣਾ ਸਕਦੇ ਹੋ।</t>
   </si>
   <si>
-    <t>By proceeding ahead you agree to the &lt;a href=\"../terms-and-conditions.html\" target=\"_blank\"&gt; Terms and Conditions&lt;/a&gt;</t>
+    <t>ਤੁਹਾਡੀ ਭਾਸ਼ਾ ਦੀ 10000 ਪ੍ਰਤੀਬਿੰਬਾਂ ਦਾ ਟੀਚਾ ਪ੍ਰਾਪਤ ਕਰਨ ਵਿੱਚ ਸਹਾਇਤਾ ਕਰੋ।ਅਸੀਂ ਜਾਣਦੇ ਹਾਂ ਕਿ ਤੁਸੀਂ ਹੋਰ ਵੀ ਕਰ ਸਕਦੇ ਹੋ!</t>
   </si>
   <si>
-    <t>ਜਾਰੀ ਰੱਖਣ ਤੋਂ ਪਹਿਲਾਂ &lt;a href=\"../terms-and-conditions.html\" target=\"_blank\"&gt; ਸ਼ਰਤਾਂ ਅਤੇ ਨਿਯਮਾਂ &lt;/a&gt;ਨਾਲ ਸਹਿਮਤ ਹੋਵੋ</t>
+    <t>By proceeding ahead you agree to the &lt;a href="../terms-and-conditions.html" target="_blank"&gt; Terms and Conditions&lt;/a&gt;</t>
   </si>
   <si>
-    <t>Your next goal is to reach &lt;span id=\"next_badge_count\"&gt;&lt;/span&gt; recordings to earn your &lt;span id=\"next_badge_name_1\"&gt;&lt;/span&gt; Bhasha Samarthak Badge. &lt;a href=\"badges.html\"&gt;Know more&lt;/a&gt;</t>
+    <t>ਜਾਰੀ ਰੱਖਣ ਤੋਂ ਪਹਿਲਾਂ &lt;a href="../terms-and-conditions.html" target="_blank"&gt; ਸ਼ਰਤਾਂ ਅਤੇ ਨਿਯਮਾਂ &lt;/a&gt;ਨਾਲ ਸਹਿਮਤ ਹੋਵੋ</t>
   </si>
   <si>
-    <t>ਤੁਹਾਡਾ ਅਗਲਾ ਟੀਚਾ ਆਪਣੇ &lt;span id=\"next_badge_name_1\"&gt;&lt;/span&gt; ਭਾਸ਼ਾ ਸਮਰਥਕ ਬੈਜ ਨੂੰ ਕਮਾਉਣ ਲਈ &lt;span id="next_badge_count"&gt;&lt;/span&gt; ਰਿਕਾਰਡਿੰਗਾਂ ਤੱਕ ਪਹੁੰਚਣਾ ਹੈ।</t>
+    <t>ਤੁਹਾਡਾ ਅਗਲਾ ਟੀਚਾ ਆਪਣੇ &lt;span id="next_badge_name_1"&gt;&lt;/span&gt; ਭਾਸ਼ਾ ਸਮਰਥਕ ਬੈਜ ਨੂੰ ਕਮਾਉਣ ਲਈ &lt;span id="next_badge_count"&gt;&lt;/span&gt; ਰਿਕਾਰਡਿੰਗਾਂ ਤੱਕ ਪਹੁੰਚਣਾ ਹੈ।</t>
   </si>
   <si>
-    <t>Help your language achieve it’s goal of 10000 images. We know you can do more!</t>
+    <t>Help your language achieve it’s goal of &lt;span id="language-hour-goal"&gt;&lt;/span&gt; images. We know you can do more!</t>
   </si>
   <si>
-    <t>ਤੁਹਾਡੀ ਭਾਸ਼ਾ ਦੀ 10000 ਪ੍ਰਤੀਬਿੰਬਾਂ ਦਾ ਟੀਚਾ ਪ੍ਰਾਪਤ ਕਰਨ ਵਿੱਚ ਸਹਾਇਤਾ ਕਰੋ।ਅਸੀਂ ਜਾਣਦੇ ਹਾਂ ਕਿ ਤੁਸੀਂ ਹੋਰ ਵੀ ਕਰ ਸਕਦੇ ਹੋ!</t>
+    <t>Your next goal is to reach &lt;span id="next_badge_count"&gt;&lt;/span&gt; recordings to earn your  &lt;span id="next_badge_name_1"&gt;&lt;/span&gt; Bhasha Samarthak Badge. &lt;a href="./badges.html"&gt;Know more&lt;/a&gt;</t>
   </si>
 </sst>
 </file>
@@ -626,10 +626,13 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="161.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
@@ -1710,12 +1713,12 @@
     <row r="35" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
       <c r="B35" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
@@ -1742,7 +1745,7 @@
     <row r="36" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1779,7 +1782,7 @@
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
